--- a/pred_ohlcv/54_21/2020-01-22 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BCH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>112.68351634</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>155.59251634</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>81.06521634000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>88.80301634</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>47.51351634</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>34.58441634</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>118.93011634</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>247.63681634</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>213.77821634</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>245.75811634</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>283.81626552</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>244.0695993</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>192.7154993</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>276.3968993</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>267.2066993</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>252.1188993</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>182.4698993</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>124.8592993</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>116.3557993</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>78.37219929999998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>315.08697002</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>291.1606700199999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>250.8831179899999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>258.1099179899999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>310.0243179899999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>325.6731179899999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>614.5784179899998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>531.3847179899998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>478.3105179899998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>440.0110179899997</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>465.9204179899997</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>466.3875179899998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>438.5056179899998</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>433.2602179899998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>319.2226179899998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>319.2226179899998</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>427.9177403199999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>533.6171403199999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>310.3708403199998</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>307.9221403199999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>56.32544031999987</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>56.32544031999987</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>37.89194031999988</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>90.39254108999987</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>108.2618410899999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-108.4403589100001</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-119.6592589100001</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-149.8038589100001</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-149.8038589100001</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-141.9725589100001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-77.92675891000015</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-77.98765891000015</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-88.37335891000015</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-93.49195891000015</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-94.60075891000015</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-82.95175891000015</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-83.60705891000015</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-68.06945379000015</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-69.06945379000015</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-63.85075379000016</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-68.64425379000015</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-126.4359413100001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-132.0359413100001</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-135.4359413100001</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>148.8775797499999</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>131.8181797499999</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>156.6856797499999</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>163.9258266299999</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>104.3481266299999</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>104.3481266299999</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>53.28812662999994</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>59.12091599999994</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>57.71911599999994</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1.938339239999934</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1.938339239999934</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-69.40496076000007</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-14.35317783000007</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-30.02677783000007</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-25.25907783000007</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-21.15797783000007</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-11.44227783000007</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>21.83132216999994</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>21.83132216999994</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-6.957377830000063</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-14.16197783000006</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>3.829622169999936</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>44.33702216999993</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>44.33702216999993</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>44.33702216999993</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>15.83762186999993</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-4.962078130000069</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-21.66717813000007</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-21.66717813000007</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>28.22382186999993</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2.275021869999929</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>0.8750218699999288</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1.135021869999929</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1.035021869999929</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1.446678130000071</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>50.85582186999993</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>63.92502186999993</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>63.92502186999993</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>28.94432186999993</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-37.12527813000006</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1080.12383573</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1098.06073573</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1020.20893573</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-973.6889278799998</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-973.6910278799999</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-972.6910278799999</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-982.8192278799999</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-976.2065376799999</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-994.3479189899999</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-994.3479189899999</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-996.64301899</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-996.64301899</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-1000.14761899</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-1006.23521899</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-995.6809684599999</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-1002.68216846</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-998.4821684599999</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-1003.66166846</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-997.1321684599999</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-997.1321684599999</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-997.1321684599999</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1015.10116846</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1003.78696846</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-1003.78696846</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-1001.39166846</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1043.09542454</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1007.75352454</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-950.1817245399998</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-787.0458245399998</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-531.9480806399998</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-547.5900806399999</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-597.7444806399999</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-599.7162806399998</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-598.5701806399998</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-601.1804806399998</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-601.1804806399998</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-543.3845806399999</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-577.6707806399999</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-572.7478806399998</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-467.9253806399998</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-468.0133806399998</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-470.0543806399998</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-339.9754806399998</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-470.5130418099998</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-463.5130418099998</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-477.0882418099998</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-488.9702418099998</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-231.9019042500003</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-220.5503042500003</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-244.7933042500003</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-153.2156171000003</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-174.2414171000003</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-182.8022171000003</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-294.3415171000003</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-290.2829171000003</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-345.4496171000003</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-395.4516171000003</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-803.2049901800004</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-802.9916901800004</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-802.9916901800004</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-802.9916901800004</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-769.4495901800004</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-786.7093901800005</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 BCH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>112.68351634</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>155.59251634</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>81.06521634000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>88.80301634</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>47.51351634</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>34.58441634</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>118.93011634</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>247.63681634</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>213.77821634</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>245.75811634</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>283.81626552</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>244.0695993</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>192.7154993</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>276.3968993</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>267.2066993</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>252.1188993</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>182.4698993</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>124.8592993</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>116.3557993</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>78.37219929999998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>315.08697002</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>291.1606700199999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>250.8831179899999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>258.1099179899999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>310.0243179899999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>325.6731179899999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>614.5784179899998</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>531.3847179899998</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>478.3105179899998</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>440.0110179899997</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>465.9204179899997</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>466.3875179899998</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>438.5056179899998</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>433.2602179899998</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>319.2226179899998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>319.2226179899998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>427.9177403199999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>533.6171403199999</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>310.3708403199998</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>307.9221403199999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>56.32544031999987</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>56.32544031999987</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>37.89194031999988</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>90.39254108999987</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>108.2618410899999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-108.4403589100001</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-119.6592589100001</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-149.8038589100001</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-149.8038589100001</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-141.9725589100001</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-77.92675891000015</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-77.98765891000015</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-88.37335891000015</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-93.49195891000015</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-94.60075891000015</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-82.95175891000015</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-83.60705891000015</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-68.06945379000015</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-69.06945379000015</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-63.85075379000016</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-68.64425379000015</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-126.4359413100001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-132.0359413100001</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-135.4359413100001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>125.4063266299999</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>148.8775797499999</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>131.8181797499999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>156.6856797499999</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>163.9258266299999</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>104.3481266299999</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>104.3481266299999</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>53.28812662999994</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>59.12091599999994</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>57.71911599999994</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1.938339239999934</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1.938339239999934</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-14.35317783000007</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-30.02677783000007</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-25.25907783000007</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-21.15797783000007</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-11.44227783000007</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>21.83132216999994</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>21.83132216999994</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-6.957377830000063</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-14.16197783000006</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>3.829622169999936</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>44.33702216999993</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>44.33702216999993</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>44.33702216999993</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>15.83762186999993</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-4.962078130000069</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-21.66717813000007</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-21.66717813000007</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>28.22382186999993</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2.275021869999929</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>0.8750218699999288</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1.135021869999929</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1.035021869999929</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1.446678130000071</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1080.12383573</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1098.06073573</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1098.06073573</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1060.49563573</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1035.57453573</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1020.20893573</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-972.6910278799999</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-978.1427376799999</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-976.2065376799999</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-983.5023376799999</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-951.8194376799999</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-915.3516189899999</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-915.3516189899999</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-994.3479189899999</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-994.3479189899999</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-996.64301899</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-996.64301899</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-1000.14761899</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-1006.23521899</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-995.6809684599999</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-1002.68216846</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-998.4821684599999</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-1003.66166846</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-997.1321684599999</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-997.1321684599999</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-997.1321684599999</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1015.10116846</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1003.78696846</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-1003.78696846</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-1001.39166846</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1043.09542454</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1007.75352454</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-950.1817245399998</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-787.0458245399998</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-716.3226245399998</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-531.9480806399998</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-547.5900806399999</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-597.7444806399999</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-599.7162806399998</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-598.5701806399998</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-601.1804806399998</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-601.1804806399998</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-543.3845806399999</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-577.6707806399999</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-572.7478806399998</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-467.9253806399998</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-468.0133806399998</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-470.0543806399998</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-339.9754806399998</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-470.5130418099998</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-463.5130418099998</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-477.0882418099998</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-488.9702418099998</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-231.9019042500003</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-220.5503042500003</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-244.7933042500003</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-153.2156171000003</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-174.2414171000003</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-182.8022171000003</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-294.3415171000003</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-290.2829171000003</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-345.4496171000003</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-395.4516171000003</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-803.2049901800004</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-802.9916901800004</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-802.9916901800004</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-802.9916901800004</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-769.4495901800004</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-786.7093901800005</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
